--- a/outputs-HGR-r202/train-g__Duodenibacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Duodenibacillus_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="568">
   <si>
     <t>Row</t>
   </si>
@@ -1388,6 +1389,339 @@
   </si>
   <si>
     <t>label_UMGS1562_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS70_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS349_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS71_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS500_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS655_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS662_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1525_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1562_96.fasta</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1742,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1424,11 +1758,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1438,6 +1774,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17281,4 +17619,3946 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K112"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="29.42578125" customWidth="true"/>
+    <col min="3" max="3" width="29.7109375" customWidth="true"/>
+    <col min="4" max="4" width="29.7109375" customWidth="true"/>
+    <col min="5" max="5" width="29.7109375" customWidth="true"/>
+    <col min="6" max="6" width="29.7109375" customWidth="true"/>
+    <col min="7" max="7" width="29.7109375" customWidth="true"/>
+    <col min="8" max="8" width="29.7109375" customWidth="true"/>
+    <col min="9" max="9" width="29.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.28515625" customWidth="true"/>
+    <col min="11" max="11" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2">
+        <v>0.90124207201665996</v>
+      </c>
+      <c r="C2">
+        <v>0.005518980323983254</v>
+      </c>
+      <c r="D2">
+        <v>0.071778041135775197</v>
+      </c>
+      <c r="E2">
+        <v>0.0045020318250684147</v>
+      </c>
+      <c r="F2">
+        <v>0.0037944962476079949</v>
+      </c>
+      <c r="G2">
+        <v>0.012844977678748998</v>
+      </c>
+      <c r="H2">
+        <v>2.9110939567619186e-05</v>
+      </c>
+      <c r="I2">
+        <v>0.0002902898325885613</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3">
+        <v>0.893358522720475</v>
+      </c>
+      <c r="C3">
+        <v>0.025095704393302217</v>
+      </c>
+      <c r="D3">
+        <v>0.004753821582207096</v>
+      </c>
+      <c r="E3">
+        <v>0.0031289280685783279</v>
+      </c>
+      <c r="F3">
+        <v>0.039044126600409915</v>
+      </c>
+      <c r="G3">
+        <v>0.02613478279210301</v>
+      </c>
+      <c r="H3">
+        <v>0.00031918595058298682</v>
+      </c>
+      <c r="I3">
+        <v>0.0081649278923414323</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4">
+        <v>0.92990461961233595</v>
+      </c>
+      <c r="C4">
+        <v>0.0067432641500608272</v>
+      </c>
+      <c r="D4">
+        <v>0.029298550606892602</v>
+      </c>
+      <c r="E4">
+        <v>0.0018781522393782088</v>
+      </c>
+      <c r="F4">
+        <v>0.00040605649816813973</v>
+      </c>
+      <c r="G4">
+        <v>0.030613219222156637</v>
+      </c>
+      <c r="H4">
+        <v>0.00013845595937420554</v>
+      </c>
+      <c r="I4">
+        <v>0.0010176817116334458</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5">
+        <v>0.92640392064875565</v>
+      </c>
+      <c r="C5">
+        <v>0.0091627166741527905</v>
+      </c>
+      <c r="D5">
+        <v>0.053789858728642108</v>
+      </c>
+      <c r="E5">
+        <v>0.0038837597125455396</v>
+      </c>
+      <c r="F5">
+        <v>0.00048006916502443527</v>
+      </c>
+      <c r="G5">
+        <v>0.0042437918240692306</v>
+      </c>
+      <c r="H5">
+        <v>6.041680097391397e-05</v>
+      </c>
+      <c r="I5">
+        <v>0.001975466445836373</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6">
+        <v>0.84662730413586229</v>
+      </c>
+      <c r="C6">
+        <v>0.0032924555415925435</v>
+      </c>
+      <c r="D6">
+        <v>0.13216064721577475</v>
+      </c>
+      <c r="E6">
+        <v>0.002603350385935654</v>
+      </c>
+      <c r="F6">
+        <v>0.00069249754173001971</v>
+      </c>
+      <c r="G6">
+        <v>0.014045109638194019</v>
+      </c>
+      <c r="H6">
+        <v>6.8305418598814361e-05</v>
+      </c>
+      <c r="I6">
+        <v>0.00051033012231186075</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7">
+        <v>0.88695190328034612</v>
+      </c>
+      <c r="C7">
+        <v>0.0055376680713614965</v>
+      </c>
+      <c r="D7">
+        <v>0.065512266998650259</v>
+      </c>
+      <c r="E7">
+        <v>0.0031319227466128992</v>
+      </c>
+      <c r="F7">
+        <v>0.018771207560940112</v>
+      </c>
+      <c r="G7">
+        <v>0.019177177710858462</v>
+      </c>
+      <c r="H7">
+        <v>0.00011811984299811577</v>
+      </c>
+      <c r="I7">
+        <v>0.00079973378823257237</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8">
+        <v>0.92463778659581763</v>
+      </c>
+      <c r="C8">
+        <v>0.011082881498234151</v>
+      </c>
+      <c r="D8">
+        <v>0.016170957065910263</v>
+      </c>
+      <c r="E8">
+        <v>0.001941259291651516</v>
+      </c>
+      <c r="F8">
+        <v>0.0010932089061361987</v>
+      </c>
+      <c r="G8">
+        <v>0.043800440110494429</v>
+      </c>
+      <c r="H8">
+        <v>0.00036733272635833963</v>
+      </c>
+      <c r="I8">
+        <v>0.00090613380539731323</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9">
+        <v>0.8752466204956697</v>
+      </c>
+      <c r="C9">
+        <v>0.0015279397884523692</v>
+      </c>
+      <c r="D9">
+        <v>0.023961598831494769</v>
+      </c>
+      <c r="E9">
+        <v>0.0018576500251151239</v>
+      </c>
+      <c r="F9">
+        <v>0.00024090296270208624</v>
+      </c>
+      <c r="G9">
+        <v>0.096494363690876689</v>
+      </c>
+      <c r="H9">
+        <v>0.00020107559165407908</v>
+      </c>
+      <c r="I9">
+        <v>0.00046984861403520867</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10">
+        <v>0.94134612200399537</v>
+      </c>
+      <c r="C10">
+        <v>0.0054186653039659449</v>
+      </c>
+      <c r="D10">
+        <v>0.017904172315374077</v>
+      </c>
+      <c r="E10">
+        <v>0.0042957054128615665</v>
+      </c>
+      <c r="F10">
+        <v>0.0054658831398239991</v>
+      </c>
+      <c r="G10">
+        <v>0.023166984672401851</v>
+      </c>
+      <c r="H10">
+        <v>0.00061848520096363852</v>
+      </c>
+      <c r="I10">
+        <v>0.0017839819506136449</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11">
+        <v>0.91758484088279968</v>
+      </c>
+      <c r="C11">
+        <v>0.0031269735143793502</v>
+      </c>
+      <c r="D11">
+        <v>0.019092981465558229</v>
+      </c>
+      <c r="E11">
+        <v>0.0046532886797027544</v>
+      </c>
+      <c r="F11">
+        <v>0.0029227821863399652</v>
+      </c>
+      <c r="G11">
+        <v>0.050646121270816739</v>
+      </c>
+      <c r="H11">
+        <v>0.00076356221121460144</v>
+      </c>
+      <c r="I11">
+        <v>0.0012094497891886665</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12">
+        <v>0.92005246649369199</v>
+      </c>
+      <c r="C12">
+        <v>0.0060463700666667413</v>
+      </c>
+      <c r="D12">
+        <v>0.023324783043750082</v>
+      </c>
+      <c r="E12">
+        <v>0.0044133069807909568</v>
+      </c>
+      <c r="F12">
+        <v>0.0031097324271906427</v>
+      </c>
+      <c r="G12">
+        <v>0.024051053720645855</v>
+      </c>
+      <c r="H12">
+        <v>0.0052791377462666341</v>
+      </c>
+      <c r="I12">
+        <v>0.013723149520996878</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13">
+        <v>0.94378471605757797</v>
+      </c>
+      <c r="C13">
+        <v>0.0072291771553303083</v>
+      </c>
+      <c r="D13">
+        <v>0.011844788044086533</v>
+      </c>
+      <c r="E13">
+        <v>0.005353963844714555</v>
+      </c>
+      <c r="F13">
+        <v>0.0078682059876445214</v>
+      </c>
+      <c r="G13">
+        <v>0.012583443528437342</v>
+      </c>
+      <c r="H13">
+        <v>0.0028679727950383462</v>
+      </c>
+      <c r="I13">
+        <v>0.0084677325871703509</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14">
+        <v>0.67668471154336773</v>
+      </c>
+      <c r="C14">
+        <v>0.0071303253658531575</v>
+      </c>
+      <c r="D14">
+        <v>0.2046634752251599</v>
+      </c>
+      <c r="E14">
+        <v>0.028868616801611839</v>
+      </c>
+      <c r="F14">
+        <v>0.014838237262694893</v>
+      </c>
+      <c r="G14">
+        <v>0.054164361606564716</v>
+      </c>
+      <c r="H14">
+        <v>0.0021131402149115468</v>
+      </c>
+      <c r="I14">
+        <v>0.011537131979836194</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15">
+        <v>0.95911673493339533</v>
+      </c>
+      <c r="C15">
+        <v>0.0037929865290278787</v>
+      </c>
+      <c r="D15">
+        <v>0.0073233223514844771</v>
+      </c>
+      <c r="E15">
+        <v>0.013634460723813918</v>
+      </c>
+      <c r="F15">
+        <v>0.0037238013039764318</v>
+      </c>
+      <c r="G15">
+        <v>0.005923279493278328</v>
+      </c>
+      <c r="H15">
+        <v>0.003372394712843989</v>
+      </c>
+      <c r="I15">
+        <v>0.0031130199521795872</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16">
+        <v>0.93230500443402553</v>
+      </c>
+      <c r="C16">
+        <v>0.0041238822497015751</v>
+      </c>
+      <c r="D16">
+        <v>0.024180430321101253</v>
+      </c>
+      <c r="E16">
+        <v>0.010303804796009397</v>
+      </c>
+      <c r="F16">
+        <v>0.0013120239081337471</v>
+      </c>
+      <c r="G16">
+        <v>0.021902963558369876</v>
+      </c>
+      <c r="H16">
+        <v>0.0025536622426543393</v>
+      </c>
+      <c r="I16">
+        <v>0.0033182284900044041</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B17">
+        <v>0.92148501759569923</v>
+      </c>
+      <c r="C17">
+        <v>0.0037012912169100279</v>
+      </c>
+      <c r="D17">
+        <v>0.0022399308583277056</v>
+      </c>
+      <c r="E17">
+        <v>0.01667368056604001</v>
+      </c>
+      <c r="F17">
+        <v>0.014884322218712956</v>
+      </c>
+      <c r="G17">
+        <v>0.0045727290843602534</v>
+      </c>
+      <c r="H17">
+        <v>0.00282018479848627</v>
+      </c>
+      <c r="I17">
+        <v>0.033622843661463488</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18">
+        <v>0.53439330077548719</v>
+      </c>
+      <c r="C18">
+        <v>0.057510445880402383</v>
+      </c>
+      <c r="D18">
+        <v>8.8183375864930548e-05</v>
+      </c>
+      <c r="E18">
+        <v>0.0073781719133443153</v>
+      </c>
+      <c r="F18">
+        <v>0.39419401051708131</v>
+      </c>
+      <c r="G18">
+        <v>0.0019072314858540713</v>
+      </c>
+      <c r="H18">
+        <v>0.0042371944036923501</v>
+      </c>
+      <c r="I18">
+        <v>0.00029146164827341479</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19">
+        <v>0.54991754906512669</v>
+      </c>
+      <c r="C19">
+        <v>0.01307470784553905</v>
+      </c>
+      <c r="D19">
+        <v>9.1657759597618766e-07</v>
+      </c>
+      <c r="E19">
+        <v>0.0082865169010434576</v>
+      </c>
+      <c r="F19">
+        <v>0.41471852084323074</v>
+      </c>
+      <c r="G19">
+        <v>0.0036382431844830245</v>
+      </c>
+      <c r="H19">
+        <v>0.0061562630708308242</v>
+      </c>
+      <c r="I19">
+        <v>0.0042072825121501995</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20">
+        <v>0.95738649009288734</v>
+      </c>
+      <c r="C20">
+        <v>0.0043088061882492453</v>
+      </c>
+      <c r="D20">
+        <v>0.028174051961285095</v>
+      </c>
+      <c r="E20">
+        <v>0.0019187888701245309</v>
+      </c>
+      <c r="F20">
+        <v>0.00078288254662147675</v>
+      </c>
+      <c r="G20">
+        <v>0.0073681678886929509</v>
+      </c>
+      <c r="H20">
+        <v>2.7572174868020722e-05</v>
+      </c>
+      <c r="I20">
+        <v>3.3240277271373728e-05</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21">
+        <v>0.001872168924010666</v>
+      </c>
+      <c r="C21">
+        <v>0.42165013258976813</v>
+      </c>
+      <c r="D21">
+        <v>0.1608331493202779</v>
+      </c>
+      <c r="E21">
+        <v>0.17619755869665532</v>
+      </c>
+      <c r="F21">
+        <v>0.014909581929841169</v>
+      </c>
+      <c r="G21">
+        <v>0.02489284068170599</v>
+      </c>
+      <c r="H21">
+        <v>6.2855759643098635e-05</v>
+      </c>
+      <c r="I21">
+        <v>0.19958171209809764</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22">
+        <v>1.9007095117200381e-05</v>
+      </c>
+      <c r="C22">
+        <v>0.07585114788705527</v>
+      </c>
+      <c r="D22">
+        <v>0.78012748341533344</v>
+      </c>
+      <c r="E22">
+        <v>0.12048749163823223</v>
+      </c>
+      <c r="F22">
+        <v>0.0021058514078154378</v>
+      </c>
+      <c r="G22">
+        <v>0.0018479165497986164</v>
+      </c>
+      <c r="H22">
+        <v>2.8285202008310603e-05</v>
+      </c>
+      <c r="I22">
+        <v>0.01953281680463971</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23">
+        <v>0.00072312612358040398</v>
+      </c>
+      <c r="C23">
+        <v>0.22175435150714909</v>
+      </c>
+      <c r="D23">
+        <v>0.60523860911577065</v>
+      </c>
+      <c r="E23">
+        <v>0.084458590605142714</v>
+      </c>
+      <c r="F23">
+        <v>0.0016996920398249574</v>
+      </c>
+      <c r="G23">
+        <v>0.01844681263775164</v>
+      </c>
+      <c r="H23">
+        <v>0.00018278821091490427</v>
+      </c>
+      <c r="I23">
+        <v>0.067496029759865517</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24">
+        <v>0.0036475504743388888</v>
+      </c>
+      <c r="C24">
+        <v>0.35278647763148252</v>
+      </c>
+      <c r="D24">
+        <v>0.061142442526002663</v>
+      </c>
+      <c r="E24">
+        <v>0.079914568475511177</v>
+      </c>
+      <c r="F24">
+        <v>0.015084344944715947</v>
+      </c>
+      <c r="G24">
+        <v>0.13746485137568221</v>
+      </c>
+      <c r="H24">
+        <v>0.02273014317026948</v>
+      </c>
+      <c r="I24">
+        <v>0.32722962140199713</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25">
+        <v>0.00039810766797271325</v>
+      </c>
+      <c r="C25">
+        <v>0.46167137254966972</v>
+      </c>
+      <c r="D25">
+        <v>0.1308608091671821</v>
+      </c>
+      <c r="E25">
+        <v>0.190633491130174</v>
+      </c>
+      <c r="F25">
+        <v>0.010798707505216481</v>
+      </c>
+      <c r="G25">
+        <v>0.013954270482345271</v>
+      </c>
+      <c r="H25">
+        <v>5.2606076442845168e-05</v>
+      </c>
+      <c r="I25">
+        <v>0.19163063542099695</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26">
+        <v>0.0023686549418982668</v>
+      </c>
+      <c r="C26">
+        <v>0.21846706698462698</v>
+      </c>
+      <c r="D26">
+        <v>0.015995037509650582</v>
+      </c>
+      <c r="E26">
+        <v>0.010560696272477009</v>
+      </c>
+      <c r="F26">
+        <v>0.012358829803035987</v>
+      </c>
+      <c r="G26">
+        <v>0.00023512551168826542</v>
+      </c>
+      <c r="H26">
+        <v>0.021043181306847056</v>
+      </c>
+      <c r="I26">
+        <v>0.71897140766977574</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27">
+        <v>6.0724020390030718e-05</v>
+      </c>
+      <c r="C27">
+        <v>0.14835775721146305</v>
+      </c>
+      <c r="D27">
+        <v>0.673783832493697</v>
+      </c>
+      <c r="E27">
+        <v>0.1344098694967247</v>
+      </c>
+      <c r="F27">
+        <v>0.0012492997588640434</v>
+      </c>
+      <c r="G27">
+        <v>0.0016129548682935022</v>
+      </c>
+      <c r="H27">
+        <v>9.3728460663868072e-06</v>
+      </c>
+      <c r="I27">
+        <v>0.040516189304501404</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28">
+        <v>0.00084001674778391613</v>
+      </c>
+      <c r="C28">
+        <v>0.44848598692745817</v>
+      </c>
+      <c r="D28">
+        <v>0.2157961069105612</v>
+      </c>
+      <c r="E28">
+        <v>0.16813015294327316</v>
+      </c>
+      <c r="F28">
+        <v>0.016505189925472959</v>
+      </c>
+      <c r="G28">
+        <v>0.018497081096918756</v>
+      </c>
+      <c r="H28">
+        <v>6.3833273841511028e-05</v>
+      </c>
+      <c r="I28">
+        <v>0.1316816321746902</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B29">
+        <v>1.1125628957643565e-05</v>
+      </c>
+      <c r="C29">
+        <v>0.070960291680248685</v>
+      </c>
+      <c r="D29">
+        <v>0.79561219847150999</v>
+      </c>
+      <c r="E29">
+        <v>0.12505500919820259</v>
+      </c>
+      <c r="F29">
+        <v>0.00020147208689059486</v>
+      </c>
+      <c r="G29">
+        <v>0.00011930065519866695</v>
+      </c>
+      <c r="H29">
+        <v>6.0166678732101634e-06</v>
+      </c>
+      <c r="I29">
+        <v>0.0080345856111185519</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B30">
+        <v>2.8659409000720381e-05</v>
+      </c>
+      <c r="C30">
+        <v>0.014857684743223611</v>
+      </c>
+      <c r="D30">
+        <v>0.94971484399125006</v>
+      </c>
+      <c r="E30">
+        <v>0.028530564649291292</v>
+      </c>
+      <c r="F30">
+        <v>0.00070465507412890895</v>
+      </c>
+      <c r="G30">
+        <v>0.0038256735772402889</v>
+      </c>
+      <c r="H30">
+        <v>3.5978061976380489e-05</v>
+      </c>
+      <c r="I30">
+        <v>0.0023019404938888319</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31">
+        <v>0.0013710545921418339</v>
+      </c>
+      <c r="C31">
+        <v>0.059322041186650569</v>
+      </c>
+      <c r="D31">
+        <v>0.81808890570443249</v>
+      </c>
+      <c r="E31">
+        <v>0.068628095778286796</v>
+      </c>
+      <c r="F31">
+        <v>0.0012331088188245712</v>
+      </c>
+      <c r="G31">
+        <v>0.0071424697490340789</v>
+      </c>
+      <c r="H31">
+        <v>3.6678273940459357e-05</v>
+      </c>
+      <c r="I31">
+        <v>0.044177645896689176</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32">
+        <v>0.0011456094652427915</v>
+      </c>
+      <c r="C32">
+        <v>0.17135849032429495</v>
+      </c>
+      <c r="D32">
+        <v>0.37803343758606112</v>
+      </c>
+      <c r="E32">
+        <v>0.11677163418560341</v>
+      </c>
+      <c r="F32">
+        <v>0.0083138104191408657</v>
+      </c>
+      <c r="G32">
+        <v>0.019679142748574741</v>
+      </c>
+      <c r="H32">
+        <v>0.00015869408052882875</v>
+      </c>
+      <c r="I32">
+        <v>0.3045391811905534</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33">
+        <v>5.4701013409287476e-07</v>
+      </c>
+      <c r="C33">
+        <v>0.017726948938062412</v>
+      </c>
+      <c r="D33">
+        <v>0.9094620605338839</v>
+      </c>
+      <c r="E33">
+        <v>0.035539615749987416</v>
+      </c>
+      <c r="F33">
+        <v>0.0037842707670618838</v>
+      </c>
+      <c r="G33">
+        <v>0.01377250747887207</v>
+      </c>
+      <c r="H33">
+        <v>5.8225657969114027e-05</v>
+      </c>
+      <c r="I33">
+        <v>0.019655823864029195</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34">
+        <v>0.00026222823466324238</v>
+      </c>
+      <c r="C34">
+        <v>0.08125126195144132</v>
+      </c>
+      <c r="D34">
+        <v>0.74468815601740479</v>
+      </c>
+      <c r="E34">
+        <v>0.059459047292098111</v>
+      </c>
+      <c r="F34">
+        <v>0.00093634424410510069</v>
+      </c>
+      <c r="G34">
+        <v>0.011602650969571459</v>
+      </c>
+      <c r="H34">
+        <v>0.00015608197810756868</v>
+      </c>
+      <c r="I34">
+        <v>0.10164422931260823</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35">
+        <v>1.6216597303417039e-05</v>
+      </c>
+      <c r="C35">
+        <v>0.0022269284800284649</v>
+      </c>
+      <c r="D35">
+        <v>0.94468066084781055</v>
+      </c>
+      <c r="E35">
+        <v>0.050042181757252252</v>
+      </c>
+      <c r="F35">
+        <v>0.00023228378659151717</v>
+      </c>
+      <c r="G35">
+        <v>0.0016155446785626837</v>
+      </c>
+      <c r="H35">
+        <v>4.4228946373444187e-05</v>
+      </c>
+      <c r="I35">
+        <v>0.0011419549060777267</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36">
+        <v>0.0023835970724478714</v>
+      </c>
+      <c r="C36">
+        <v>0.3344437680370414</v>
+      </c>
+      <c r="D36">
+        <v>0.20436963917748127</v>
+      </c>
+      <c r="E36">
+        <v>0.049985283029848754</v>
+      </c>
+      <c r="F36">
+        <v>0.035198579186064845</v>
+      </c>
+      <c r="G36">
+        <v>0.17634729167963958</v>
+      </c>
+      <c r="H36">
+        <v>0.0016582191897669318</v>
+      </c>
+      <c r="I36">
+        <v>0.19561362262770943</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B37">
+        <v>0.019128704581329661</v>
+      </c>
+      <c r="C37">
+        <v>0.26985056123920087</v>
+      </c>
+      <c r="D37">
+        <v>0.23722593099012221</v>
+      </c>
+      <c r="E37">
+        <v>0.076414983701610331</v>
+      </c>
+      <c r="F37">
+        <v>0.041151282761929898</v>
+      </c>
+      <c r="G37">
+        <v>0.16792757893955296</v>
+      </c>
+      <c r="H37">
+        <v>0.00068334020935835113</v>
+      </c>
+      <c r="I37">
+        <v>0.18761761757689568</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38">
+        <v>0.0011208966419012263</v>
+      </c>
+      <c r="C38">
+        <v>0.055356980350949971</v>
+      </c>
+      <c r="D38">
+        <v>0.19324176310621982</v>
+      </c>
+      <c r="E38">
+        <v>0.019512464468773062</v>
+      </c>
+      <c r="F38">
+        <v>0.024361042509213317</v>
+      </c>
+      <c r="G38">
+        <v>0.064689793386579666</v>
+      </c>
+      <c r="H38">
+        <v>0.0062709255734366646</v>
+      </c>
+      <c r="I38">
+        <v>0.63544613396292626</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39">
+        <v>0.31285265193264894</v>
+      </c>
+      <c r="C39">
+        <v>0.0023628820835026806</v>
+      </c>
+      <c r="D39">
+        <v>0.013082895433445521</v>
+      </c>
+      <c r="E39">
+        <v>0.0079273491983105886</v>
+      </c>
+      <c r="F39">
+        <v>0.0040620393970122824</v>
+      </c>
+      <c r="G39">
+        <v>0.65649097742890727</v>
+      </c>
+      <c r="H39">
+        <v>0.0015899082254015335</v>
+      </c>
+      <c r="I39">
+        <v>0.0016312963007711623</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40">
+        <v>0.00010057417633802065</v>
+      </c>
+      <c r="C40">
+        <v>0.0039798398009725875</v>
+      </c>
+      <c r="D40">
+        <v>0.10947465918985175</v>
+      </c>
+      <c r="E40">
+        <v>0.25593777117041955</v>
+      </c>
+      <c r="F40">
+        <v>0.0042990087524937461</v>
+      </c>
+      <c r="G40">
+        <v>0.62161390934338434</v>
+      </c>
+      <c r="H40">
+        <v>0.0016761065204434851</v>
+      </c>
+      <c r="I40">
+        <v>0.0029181310460966075</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41">
+        <v>0.0050025725373558849</v>
+      </c>
+      <c r="C41">
+        <v>0.0073749469209051398</v>
+      </c>
+      <c r="D41">
+        <v>0.12303260988281911</v>
+      </c>
+      <c r="E41">
+        <v>0.16647656451417994</v>
+      </c>
+      <c r="F41">
+        <v>0.0024293445749267199</v>
+      </c>
+      <c r="G41">
+        <v>0.68527613921216368</v>
+      </c>
+      <c r="H41">
+        <v>0.0013151261235607771</v>
+      </c>
+      <c r="I41">
+        <v>0.0090926962340884786</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42">
+        <v>0.0074314238104459078</v>
+      </c>
+      <c r="C42">
+        <v>0.036578019808701429</v>
+      </c>
+      <c r="D42">
+        <v>0.15379872576590237</v>
+      </c>
+      <c r="E42">
+        <v>0.33014261232435482</v>
+      </c>
+      <c r="F42">
+        <v>0.046626144132497001</v>
+      </c>
+      <c r="G42">
+        <v>0.30693973045299155</v>
+      </c>
+      <c r="H42">
+        <v>0.014504309989345614</v>
+      </c>
+      <c r="I42">
+        <v>0.10397903371576124</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43">
+        <v>0.20736600130893343</v>
+      </c>
+      <c r="C43">
+        <v>0.018613611841716105</v>
+      </c>
+      <c r="D43">
+        <v>5.5672019514632701e-06</v>
+      </c>
+      <c r="E43">
+        <v>0.25963889153697256</v>
+      </c>
+      <c r="F43">
+        <v>0.025691677596243304</v>
+      </c>
+      <c r="G43">
+        <v>0.48616523525520289</v>
+      </c>
+      <c r="H43">
+        <v>0.0024231467452348488</v>
+      </c>
+      <c r="I43">
+        <v>9.5868513745506136e-05</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44">
+        <v>0.00027592076466486558</v>
+      </c>
+      <c r="C44">
+        <v>0.0077965996929981627</v>
+      </c>
+      <c r="D44">
+        <v>0.088106712414056487</v>
+      </c>
+      <c r="E44">
+        <v>0.5366819416748726</v>
+      </c>
+      <c r="F44">
+        <v>0.0036190685154411698</v>
+      </c>
+      <c r="G44">
+        <v>0.36006976740475005</v>
+      </c>
+      <c r="H44">
+        <v>0.0026007690606639007</v>
+      </c>
+      <c r="I44">
+        <v>0.00084922047255263887</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>0.00011503069490987213</v>
+      </c>
+      <c r="C45">
+        <v>0.010320669230422554</v>
+      </c>
+      <c r="D45">
+        <v>0.055198742098449861</v>
+      </c>
+      <c r="E45">
+        <v>0.35185718578151925</v>
+      </c>
+      <c r="F45">
+        <v>0.024215634372446955</v>
+      </c>
+      <c r="G45">
+        <v>0.55728983114119213</v>
+      </c>
+      <c r="H45">
+        <v>0.0005569581125898814</v>
+      </c>
+      <c r="I45">
+        <v>0.00044594856846959257</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46">
+        <v>9.6286391768279174e-06</v>
+      </c>
+      <c r="C46">
+        <v>0.0014631436460409233</v>
+      </c>
+      <c r="D46">
+        <v>0.032379118503087036</v>
+      </c>
+      <c r="E46">
+        <v>0.0013801974442347945</v>
+      </c>
+      <c r="F46">
+        <v>0.95858477477189985</v>
+      </c>
+      <c r="G46">
+        <v>0.006149881127759352</v>
+      </c>
+      <c r="H46">
+        <v>6.1240359241092486e-07</v>
+      </c>
+      <c r="I46">
+        <v>3.264346420901354e-05</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47">
+        <v>3.4400750895668618e-05</v>
+      </c>
+      <c r="C47">
+        <v>0.0036229729048175385</v>
+      </c>
+      <c r="D47">
+        <v>0.0042607155180366578</v>
+      </c>
+      <c r="E47">
+        <v>0.0018339881365865714</v>
+      </c>
+      <c r="F47">
+        <v>0.97168058937634327</v>
+      </c>
+      <c r="G47">
+        <v>0.017187741550241224</v>
+      </c>
+      <c r="H47">
+        <v>3.2750341471285037e-06</v>
+      </c>
+      <c r="I47">
+        <v>0.0013763167289319099</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B48">
+        <v>8.6682019648747684e-06</v>
+      </c>
+      <c r="C48">
+        <v>0.0011980694012180208</v>
+      </c>
+      <c r="D48">
+        <v>0.0089338349149515328</v>
+      </c>
+      <c r="E48">
+        <v>0.0031597280241001087</v>
+      </c>
+      <c r="F48">
+        <v>0.9614935711752961</v>
+      </c>
+      <c r="G48">
+        <v>0.024644191566519168</v>
+      </c>
+      <c r="H48">
+        <v>1.735842127775137e-05</v>
+      </c>
+      <c r="I48">
+        <v>0.00054457829467236863</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49">
+        <v>0.00018483867613010887</v>
+      </c>
+      <c r="C49">
+        <v>0.0023346973185714472</v>
+      </c>
+      <c r="D49">
+        <v>0.0033100639454764717</v>
+      </c>
+      <c r="E49">
+        <v>0.0031058629784692735</v>
+      </c>
+      <c r="F49">
+        <v>0.94149937638429471</v>
+      </c>
+      <c r="G49">
+        <v>0.048292536350933134</v>
+      </c>
+      <c r="H49">
+        <v>2.2624974731299461e-05</v>
+      </c>
+      <c r="I49">
+        <v>0.0012499993713935666</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B50">
+        <v>0.00022922945158759448</v>
+      </c>
+      <c r="C50">
+        <v>0.0024803170650669879</v>
+      </c>
+      <c r="D50">
+        <v>0.032083656473612249</v>
+      </c>
+      <c r="E50">
+        <v>0.0071540092736821102</v>
+      </c>
+      <c r="F50">
+        <v>0.93017226061722391</v>
+      </c>
+      <c r="G50">
+        <v>0.026920777648586136</v>
+      </c>
+      <c r="H50">
+        <v>4.3597612670297968e-05</v>
+      </c>
+      <c r="I50">
+        <v>0.00091615185757079338</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B51">
+        <v>0.0012974699949434053</v>
+      </c>
+      <c r="C51">
+        <v>0.0064596602137194856</v>
+      </c>
+      <c r="D51">
+        <v>0.00081600024696199241</v>
+      </c>
+      <c r="E51">
+        <v>0.0074369596719284798</v>
+      </c>
+      <c r="F51">
+        <v>0.96504381932934902</v>
+      </c>
+      <c r="G51">
+        <v>0.013987175975858678</v>
+      </c>
+      <c r="H51">
+        <v>0.00048340373598322481</v>
+      </c>
+      <c r="I51">
+        <v>0.0044755108312556913</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B52">
+        <v>0.0087257537212449762</v>
+      </c>
+      <c r="C52">
+        <v>0.03261990216305171</v>
+      </c>
+      <c r="D52">
+        <v>0.022844501321306984</v>
+      </c>
+      <c r="E52">
+        <v>0.032104405879276016</v>
+      </c>
+      <c r="F52">
+        <v>0.75234811725341111</v>
+      </c>
+      <c r="G52">
+        <v>0.069473356103014083</v>
+      </c>
+      <c r="H52">
+        <v>0.0044225284557598025</v>
+      </c>
+      <c r="I52">
+        <v>0.077461435102935378</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B53">
+        <v>0.0054425162250626592</v>
+      </c>
+      <c r="C53">
+        <v>0.019204408130346583</v>
+      </c>
+      <c r="D53">
+        <v>0.024914422367715214</v>
+      </c>
+      <c r="E53">
+        <v>0.034695708614019695</v>
+      </c>
+      <c r="F53">
+        <v>0.75548275882927174</v>
+      </c>
+      <c r="G53">
+        <v>0.0713293881412638</v>
+      </c>
+      <c r="H53">
+        <v>0.0033897235995035318</v>
+      </c>
+      <c r="I53">
+        <v>0.085541074092816818</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54">
+        <v>9.949499437693811e-05</v>
+      </c>
+      <c r="C54">
+        <v>0.017653723456745558</v>
+      </c>
+      <c r="D54">
+        <v>0.00066780841568278213</v>
+      </c>
+      <c r="E54">
+        <v>0.0094822996163763835</v>
+      </c>
+      <c r="F54">
+        <v>0.92735409592684215</v>
+      </c>
+      <c r="G54">
+        <v>0.0067214385084176029</v>
+      </c>
+      <c r="H54">
+        <v>0.0011348084361837672</v>
+      </c>
+      <c r="I54">
+        <v>0.036886330645374756</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B55">
+        <v>0.074385790191829615</v>
+      </c>
+      <c r="C55">
+        <v>0.033904187348767198</v>
+      </c>
+      <c r="D55">
+        <v>0.002456692102502355</v>
+      </c>
+      <c r="E55">
+        <v>0.017330146098650231</v>
+      </c>
+      <c r="F55">
+        <v>0.78328251163918539</v>
+      </c>
+      <c r="G55">
+        <v>0.030937290324194053</v>
+      </c>
+      <c r="H55">
+        <v>0.0030221596166529821</v>
+      </c>
+      <c r="I55">
+        <v>0.054681222678218205</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B56">
+        <v>0.012099154581457628</v>
+      </c>
+      <c r="C56">
+        <v>0.035401515019553284</v>
+      </c>
+      <c r="D56">
+        <v>0.00095582602221724118</v>
+      </c>
+      <c r="E56">
+        <v>0.017351338757717612</v>
+      </c>
+      <c r="F56">
+        <v>0.72336355989026357</v>
+      </c>
+      <c r="G56">
+        <v>0.010719627258980072</v>
+      </c>
+      <c r="H56">
+        <v>0.0024096605978878851</v>
+      </c>
+      <c r="I56">
+        <v>0.19769931787192269</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57">
+        <v>0.00015582312245245963</v>
+      </c>
+      <c r="C57">
+        <v>0.16609831201041469</v>
+      </c>
+      <c r="D57">
+        <v>5.2211029799832178e-06</v>
+      </c>
+      <c r="E57">
+        <v>0.057657004717376559</v>
+      </c>
+      <c r="F57">
+        <v>0.74055472949225998</v>
+      </c>
+      <c r="G57">
+        <v>1.2739674213648835e-06</v>
+      </c>
+      <c r="H57">
+        <v>0.001474700646741634</v>
+      </c>
+      <c r="I57">
+        <v>0.034052934940353378</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B58">
+        <v>1.5512851349097641e-06</v>
+      </c>
+      <c r="C58">
+        <v>0.001556472530756414</v>
+      </c>
+      <c r="D58">
+        <v>0.011117962986489201</v>
+      </c>
+      <c r="E58">
+        <v>0.0022031940017223171</v>
+      </c>
+      <c r="F58">
+        <v>0.97632160822912506</v>
+      </c>
+      <c r="G58">
+        <v>0.0085978565139684573</v>
+      </c>
+      <c r="H58">
+        <v>1.3930139273549342e-06</v>
+      </c>
+      <c r="I58">
+        <v>0.00019996143887641234</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B59">
+        <v>7.7688522494162593e-06</v>
+      </c>
+      <c r="C59">
+        <v>0.0022784474682543215</v>
+      </c>
+      <c r="D59">
+        <v>0.0081372753953515547</v>
+      </c>
+      <c r="E59">
+        <v>0.0016226795555452269</v>
+      </c>
+      <c r="F59">
+        <v>0.97539661035149106</v>
+      </c>
+      <c r="G59">
+        <v>0.012116478614598627</v>
+      </c>
+      <c r="H59">
+        <v>2.9406265087624252e-06</v>
+      </c>
+      <c r="I59">
+        <v>0.00043779913600099763</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60">
+        <v>9.2122038675429812e-05</v>
+      </c>
+      <c r="C60">
+        <v>0.0086264516506905572</v>
+      </c>
+      <c r="D60">
+        <v>0.060282873259268066</v>
+      </c>
+      <c r="E60">
+        <v>0.33117742009309581</v>
+      </c>
+      <c r="F60">
+        <v>0.0092507006574073392</v>
+      </c>
+      <c r="G60">
+        <v>0.58924540689476446</v>
+      </c>
+      <c r="H60">
+        <v>0.00073223491951632843</v>
+      </c>
+      <c r="I60">
+        <v>0.0005927904865822408</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B61">
+        <v>2.1400477075432201e-05</v>
+      </c>
+      <c r="C61">
+        <v>0.011288554020158683</v>
+      </c>
+      <c r="D61">
+        <v>0.027727709155974906</v>
+      </c>
+      <c r="E61">
+        <v>0.14300421569996632</v>
+      </c>
+      <c r="F61">
+        <v>0.0095565145124889006</v>
+      </c>
+      <c r="G61">
+        <v>0.80297822115151063</v>
+      </c>
+      <c r="H61">
+        <v>0.00052155690569692409</v>
+      </c>
+      <c r="I61">
+        <v>0.0049018280771282747</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B62">
+        <v>0.00038671583927716587</v>
+      </c>
+      <c r="C62">
+        <v>0.026133213459420854</v>
+      </c>
+      <c r="D62">
+        <v>0.046640918460102335</v>
+      </c>
+      <c r="E62">
+        <v>0.21215033019031324</v>
+      </c>
+      <c r="F62">
+        <v>0.031934661696971067</v>
+      </c>
+      <c r="G62">
+        <v>0.63891954494420933</v>
+      </c>
+      <c r="H62">
+        <v>0.00058214387642062848</v>
+      </c>
+      <c r="I62">
+        <v>0.043252471533285486</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B63">
+        <v>3.0690310447358649e-05</v>
+      </c>
+      <c r="C63">
+        <v>0.0030216517186877588</v>
+      </c>
+      <c r="D63">
+        <v>0.07710797100026949</v>
+      </c>
+      <c r="E63">
+        <v>0.40111211843786798</v>
+      </c>
+      <c r="F63">
+        <v>0.0023078223033834756</v>
+      </c>
+      <c r="G63">
+        <v>0.5140668428872156</v>
+      </c>
+      <c r="H63">
+        <v>0.0015587376021790494</v>
+      </c>
+      <c r="I63">
+        <v>0.00079416573994935526</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B64">
+        <v>4.2496816483221827e-05</v>
+      </c>
+      <c r="C64">
+        <v>0.0013904618607510947</v>
+      </c>
+      <c r="D64">
+        <v>0.054966410156516515</v>
+      </c>
+      <c r="E64">
+        <v>0.49860102876886131</v>
+      </c>
+      <c r="F64">
+        <v>0.0012698561122031198</v>
+      </c>
+      <c r="G64">
+        <v>0.44154046782391076</v>
+      </c>
+      <c r="H64">
+        <v>0.0021206118023039907</v>
+      </c>
+      <c r="I64">
+        <v>6.8666658969830942e-05</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B65">
+        <v>0.0014610605171875314</v>
+      </c>
+      <c r="C65">
+        <v>0.011770181615937837</v>
+      </c>
+      <c r="D65">
+        <v>0.24646231726985404</v>
+      </c>
+      <c r="E65">
+        <v>0.39880508059764774</v>
+      </c>
+      <c r="F65">
+        <v>0.017988463746879995</v>
+      </c>
+      <c r="G65">
+        <v>0.31645541537604127</v>
+      </c>
+      <c r="H65">
+        <v>0.0027066784100427672</v>
+      </c>
+      <c r="I65">
+        <v>0.004350802466409078</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B66">
+        <v>0.00014834235968871101</v>
+      </c>
+      <c r="C66">
+        <v>0.0063216263528970574</v>
+      </c>
+      <c r="D66">
+        <v>0.090748653778719324</v>
+      </c>
+      <c r="E66">
+        <v>0.18261001371969923</v>
+      </c>
+      <c r="F66">
+        <v>0.0039117045097689868</v>
+      </c>
+      <c r="G66">
+        <v>0.69982371575143409</v>
+      </c>
+      <c r="H66">
+        <v>0.0014655415431260542</v>
+      </c>
+      <c r="I66">
+        <v>0.014970401984666532</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B67">
+        <v>9.4563843576796723e-05</v>
+      </c>
+      <c r="C67">
+        <v>0.0011221286907699165</v>
+      </c>
+      <c r="D67">
+        <v>0.05555173109806559</v>
+      </c>
+      <c r="E67">
+        <v>0.18318646767048663</v>
+      </c>
+      <c r="F67">
+        <v>0.0029606994112123387</v>
+      </c>
+      <c r="G67">
+        <v>0.75436940531636754</v>
+      </c>
+      <c r="H67">
+        <v>0.0025195326435838114</v>
+      </c>
+      <c r="I67">
+        <v>0.00019547132593747849</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B68">
+        <v>0.0020203862486440488</v>
+      </c>
+      <c r="C68">
+        <v>0.01982477432738074</v>
+      </c>
+      <c r="D68">
+        <v>0.13739676635249568</v>
+      </c>
+      <c r="E68">
+        <v>0.36807276033539998</v>
+      </c>
+      <c r="F68">
+        <v>0.029721747066152798</v>
+      </c>
+      <c r="G68">
+        <v>0.40469889231932549</v>
+      </c>
+      <c r="H68">
+        <v>0.015563245082470662</v>
+      </c>
+      <c r="I68">
+        <v>0.022701428268130583</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69">
+        <v>6.9076961339533976e-06</v>
+      </c>
+      <c r="C69">
+        <v>0.0072070874360324689</v>
+      </c>
+      <c r="D69">
+        <v>0.00082496173167261532</v>
+      </c>
+      <c r="E69">
+        <v>0.005064214417678398</v>
+      </c>
+      <c r="F69">
+        <v>0.0066120949013947659</v>
+      </c>
+      <c r="G69">
+        <v>1.9252291489927223e-06</v>
+      </c>
+      <c r="H69">
+        <v>0.43124435197136068</v>
+      </c>
+      <c r="I69">
+        <v>0.54903845661657802</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70">
+        <v>3.1806565574346362e-05</v>
+      </c>
+      <c r="C70">
+        <v>0.024049263794050365</v>
+      </c>
+      <c r="D70">
+        <v>0.011413189339118987</v>
+      </c>
+      <c r="E70">
+        <v>0.026924295418467491</v>
+      </c>
+      <c r="F70">
+        <v>0.0086159938601114358</v>
+      </c>
+      <c r="G70">
+        <v>1.9006181499633101e-07</v>
+      </c>
+      <c r="H70">
+        <v>0.79139574361884368</v>
+      </c>
+      <c r="I70">
+        <v>0.13756951734201878</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B71">
+        <v>4.0966913791155754e-05</v>
+      </c>
+      <c r="C71">
+        <v>0.013898504490402553</v>
+      </c>
+      <c r="D71">
+        <v>0.040079129908029844</v>
+      </c>
+      <c r="E71">
+        <v>0.0070455535218945471</v>
+      </c>
+      <c r="F71">
+        <v>0.0013205549983497517</v>
+      </c>
+      <c r="G71">
+        <v>9.6852346285108031e-06</v>
+      </c>
+      <c r="H71">
+        <v>0.27015060757558146</v>
+      </c>
+      <c r="I71">
+        <v>0.66745499735732217</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B72">
+        <v>1.6369145135352837e-08</v>
+      </c>
+      <c r="C72">
+        <v>0.001820433559521862</v>
+      </c>
+      <c r="D72">
+        <v>2.2942905918274954e-09</v>
+      </c>
+      <c r="E72">
+        <v>0.0049833972370226763</v>
+      </c>
+      <c r="F72">
+        <v>0.0031133368957714921</v>
+      </c>
+      <c r="G72">
+        <v>6.1576302617688837e-06</v>
+      </c>
+      <c r="H72">
+        <v>0.99007022758522378</v>
+      </c>
+      <c r="I72">
+        <v>6.4284287627184602e-06</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+      <c r="K72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B73">
+        <v>5.0195806273223372e-09</v>
+      </c>
+      <c r="C73">
+        <v>0.00059007899115260938</v>
+      </c>
+      <c r="D73">
+        <v>7.6294347420035135e-05</v>
+      </c>
+      <c r="E73">
+        <v>0.0029140005939951572</v>
+      </c>
+      <c r="F73">
+        <v>1.5378359471874966e-05</v>
+      </c>
+      <c r="G73">
+        <v>1.1405179325746909e-12</v>
+      </c>
+      <c r="H73">
+        <v>0.99081721071277695</v>
+      </c>
+      <c r="I73">
+        <v>0.0055870319744621942</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74">
+        <v>9.8729873513900753e-08</v>
+      </c>
+      <c r="C74">
+        <v>0.0028796397904122199</v>
+      </c>
+      <c r="D74">
+        <v>1.0018903174259978e-08</v>
+      </c>
+      <c r="E74">
+        <v>0.0053634482309771287</v>
+      </c>
+      <c r="F74">
+        <v>0.0027433827142857585</v>
+      </c>
+      <c r="G74">
+        <v>2.7787711065537441e-05</v>
+      </c>
+      <c r="H74">
+        <v>0.98849515803806132</v>
+      </c>
+      <c r="I74">
+        <v>0.00049047476642141556</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B75">
+        <v>4.3040552011935541e-07</v>
+      </c>
+      <c r="C75">
+        <v>0.0081271042911242874</v>
+      </c>
+      <c r="D75">
+        <v>1.5084673578544054e-07</v>
+      </c>
+      <c r="E75">
+        <v>0.005326436961965289</v>
+      </c>
+      <c r="F75">
+        <v>0.0024780173586684134</v>
+      </c>
+      <c r="G75">
+        <v>0.00010804959787365042</v>
+      </c>
+      <c r="H75">
+        <v>0.98384238446393346</v>
+      </c>
+      <c r="I75">
+        <v>0.00011742607417899462</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B76">
+        <v>2.5856645123647943e-06</v>
+      </c>
+      <c r="C76">
+        <v>0.009616131298456565</v>
+      </c>
+      <c r="D76">
+        <v>4.0852216489499325e-07</v>
+      </c>
+      <c r="E76">
+        <v>0.0051814759814217785</v>
+      </c>
+      <c r="F76">
+        <v>0.0083872537182257626</v>
+      </c>
+      <c r="G76">
+        <v>0.00029714284690836432</v>
+      </c>
+      <c r="H76">
+        <v>0.97252198279761193</v>
+      </c>
+      <c r="I76">
+        <v>0.0039930191706982233</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77">
+        <v>1.8305832927153385e-08</v>
+      </c>
+      <c r="C77">
+        <v>0.0014015354750514721</v>
+      </c>
+      <c r="D77">
+        <v>3.3135709817233676e-08</v>
+      </c>
+      <c r="E77">
+        <v>0.0041778441337857316</v>
+      </c>
+      <c r="F77">
+        <v>0.0011250276799046027</v>
+      </c>
+      <c r="G77">
+        <v>2.2035777690440035e-06</v>
+      </c>
+      <c r="H77">
+        <v>0.99318116884564644</v>
+      </c>
+      <c r="I77">
+        <v>0.00011216884630000836</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+      <c r="K77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78">
+        <v>0.0013029420298304815</v>
+      </c>
+      <c r="C78">
+        <v>0.12557519417413121</v>
+      </c>
+      <c r="D78">
+        <v>0.00017062546312836851</v>
+      </c>
+      <c r="E78">
+        <v>0.011425559369491464</v>
+      </c>
+      <c r="F78">
+        <v>0.096144395311536068</v>
+      </c>
+      <c r="G78">
+        <v>0.077910793720535693</v>
+      </c>
+      <c r="H78">
+        <v>0.47827309095659581</v>
+      </c>
+      <c r="I78">
+        <v>0.20919739897475084</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B79">
+        <v>2.3346346825372502e-11</v>
+      </c>
+      <c r="C79">
+        <v>5.6631422486676585e-05</v>
+      </c>
+      <c r="D79">
+        <v>6.1508155764527487e-09</v>
+      </c>
+      <c r="E79">
+        <v>0.014526443240352516</v>
+      </c>
+      <c r="F79">
+        <v>3.9130712231920258e-05</v>
+      </c>
+      <c r="G79">
+        <v>6.5264274314902989e-10</v>
+      </c>
+      <c r="H79">
+        <v>0.98537197412037314</v>
+      </c>
+      <c r="I79">
+        <v>5.8136777511348741e-06</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B80">
+        <v>1.2004588714460392e-11</v>
+      </c>
+      <c r="C80">
+        <v>2.5404899440167124e-05</v>
+      </c>
+      <c r="D80">
+        <v>2.7338884666178623e-09</v>
+      </c>
+      <c r="E80">
+        <v>0.014326803576499266</v>
+      </c>
+      <c r="F80">
+        <v>4.8052335656409361e-06</v>
+      </c>
+      <c r="G80">
+        <v>5.1365308030119887e-11</v>
+      </c>
+      <c r="H80">
+        <v>0.98562700138687831</v>
+      </c>
+      <c r="I80">
+        <v>1.5982106358214757e-05</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+      <c r="K80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B81">
+        <v>1.2666069295753879e-07</v>
+      </c>
+      <c r="C81">
+        <v>0.0021061022155198319</v>
+      </c>
+      <c r="D81">
+        <v>3.0120706123461951e-06</v>
+      </c>
+      <c r="E81">
+        <v>0.0033693393717995615</v>
+      </c>
+      <c r="F81">
+        <v>0.00060314517542017527</v>
+      </c>
+      <c r="G81">
+        <v>3.0725703052224726e-06</v>
+      </c>
+      <c r="H81">
+        <v>0.99236389741594644</v>
+      </c>
+      <c r="I81">
+        <v>0.0015513045197034984</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82">
+        <v>4.9442106230125299e-14</v>
+      </c>
+      <c r="C82">
+        <v>4.5496681192844962e-06</v>
+      </c>
+      <c r="D82">
+        <v>2.8638344241634024e-08</v>
+      </c>
+      <c r="E82">
+        <v>0.0052230186203502636</v>
+      </c>
+      <c r="F82">
+        <v>6.4954797888603454e-07</v>
+      </c>
+      <c r="G82">
+        <v>1.0653142733045654e-13</v>
+      </c>
+      <c r="H82">
+        <v>0.99477061650596577</v>
+      </c>
+      <c r="I82">
+        <v>1.1370190856621474e-06</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B83">
+        <v>2.2199019348666643e-14</v>
+      </c>
+      <c r="C83">
+        <v>1.9269746259894273e-06</v>
+      </c>
+      <c r="D83">
+        <v>3.1803260575283093e-08</v>
+      </c>
+      <c r="E83">
+        <v>0.04148819473108508</v>
+      </c>
+      <c r="F83">
+        <v>1.3241440329507644e-06</v>
+      </c>
+      <c r="G83">
+        <v>2.2199019348666643e-14</v>
+      </c>
+      <c r="H83">
+        <v>0.95850610342170184</v>
+      </c>
+      <c r="I83">
+        <v>2.4189252490425158e-06</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B84">
+        <v>4.6532189677124021e-08</v>
+      </c>
+      <c r="C84">
+        <v>0.0011433156387168186</v>
+      </c>
+      <c r="D84">
+        <v>3.039138590415807e-05</v>
+      </c>
+      <c r="E84">
+        <v>0.0062753246192796489</v>
+      </c>
+      <c r="F84">
+        <v>0.00033492663951141023</v>
+      </c>
+      <c r="G84">
+        <v>1.7283812796207351e-08</v>
+      </c>
+      <c r="H84">
+        <v>0.98146182554487504</v>
+      </c>
+      <c r="I84">
+        <v>0.010754152355710594</v>
+      </c>
+      <c r="J84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B85">
+        <v>1.2054277730939799e-10</v>
+      </c>
+      <c r="C85">
+        <v>6.7798014160942727e-05</v>
+      </c>
+      <c r="D85">
+        <v>4.2541957070927811e-07</v>
+      </c>
+      <c r="E85">
+        <v>0.0039179448548950424</v>
+      </c>
+      <c r="F85">
+        <v>4.4351314468046153e-06</v>
+      </c>
+      <c r="G85">
+        <v>1.2789625786555798e-12</v>
+      </c>
+      <c r="H85">
+        <v>0.99585676322667827</v>
+      </c>
+      <c r="I85">
+        <v>0.00015263323142647152</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B86">
+        <v>3.1316647677628833e-09</v>
+      </c>
+      <c r="C86">
+        <v>0.0010056114894336978</v>
+      </c>
+      <c r="D86">
+        <v>2.0239221609855497e-05</v>
+      </c>
+      <c r="E86">
+        <v>0.0034211311610515263</v>
+      </c>
+      <c r="F86">
+        <v>0.00095364847141991306</v>
+      </c>
+      <c r="G86">
+        <v>1.3054466805960715e-08</v>
+      </c>
+      <c r="H86">
+        <v>0.99223443953003354</v>
+      </c>
+      <c r="I86">
+        <v>0.0023649139403197675</v>
+      </c>
+      <c r="J86">
+        <v>7</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B87">
+        <v>0.00011692769164001661</v>
+      </c>
+      <c r="C87">
+        <v>0.019225019958103162</v>
+      </c>
+      <c r="D87">
+        <v>0.010877964531887715</v>
+      </c>
+      <c r="E87">
+        <v>0.0086731439805978541</v>
+      </c>
+      <c r="F87">
+        <v>0.025780191064394189</v>
+      </c>
+      <c r="G87">
+        <v>9.0363967446881099e-05</v>
+      </c>
+      <c r="H87">
+        <v>0.56948551756789201</v>
+      </c>
+      <c r="I87">
+        <v>0.36575087123803818</v>
+      </c>
+      <c r="J87">
+        <v>7</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B88">
+        <v>9.983638057037653e-06</v>
+      </c>
+      <c r="C88">
+        <v>0.0044164585098196906</v>
+      </c>
+      <c r="D88">
+        <v>0.0023581492683380548</v>
+      </c>
+      <c r="E88">
+        <v>0.0030763124053211372</v>
+      </c>
+      <c r="F88">
+        <v>0.00082476953571318675</v>
+      </c>
+      <c r="G88">
+        <v>5.9056275243925339e-06</v>
+      </c>
+      <c r="H88">
+        <v>0.61349600145176397</v>
+      </c>
+      <c r="I88">
+        <v>0.37581241956346256</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B89">
+        <v>1.3323961571091399e-07</v>
+      </c>
+      <c r="C89">
+        <v>0.0012508718748398327</v>
+      </c>
+      <c r="D89">
+        <v>0.0007345569286651201</v>
+      </c>
+      <c r="E89">
+        <v>0.0092343793831922965</v>
+      </c>
+      <c r="F89">
+        <v>0.00051634902357619822</v>
+      </c>
+      <c r="G89">
+        <v>2.7435523917192642e-07</v>
+      </c>
+      <c r="H89">
+        <v>0.89072255135098866</v>
+      </c>
+      <c r="I89">
+        <v>0.097540883843882958</v>
+      </c>
+      <c r="J89">
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B90">
+        <v>2.2199393879666547e-14</v>
+      </c>
+      <c r="C90">
+        <v>2.3018795106884382e-06</v>
+      </c>
+      <c r="D90">
+        <v>4.2310693876420725e-07</v>
+      </c>
+      <c r="E90">
+        <v>0.0047312650588168378</v>
+      </c>
+      <c r="F90">
+        <v>3.5033831184067843e-06</v>
+      </c>
+      <c r="G90">
+        <v>2.2199393879666547e-14</v>
+      </c>
+      <c r="H90">
+        <v>0.99525764424824337</v>
+      </c>
+      <c r="I90">
+        <v>4.8623233275341911e-06</v>
+      </c>
+      <c r="J90">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B91">
+        <v>0.006043492646828505</v>
+      </c>
+      <c r="C91">
+        <v>0.093775069165624697</v>
+      </c>
+      <c r="D91">
+        <v>0.16555980982063517</v>
+      </c>
+      <c r="E91">
+        <v>0.01643469171767848</v>
+      </c>
+      <c r="F91">
+        <v>0.010321492837524593</v>
+      </c>
+      <c r="G91">
+        <v>0.0010809859211117234</v>
+      </c>
+      <c r="H91">
+        <v>0.034925543962123239</v>
+      </c>
+      <c r="I91">
+        <v>0.67185891392847363</v>
+      </c>
+      <c r="J91">
+        <v>8</v>
+      </c>
+      <c r="K91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B92">
+        <v>0.014713123642988862</v>
+      </c>
+      <c r="C92">
+        <v>0.080584485440116427</v>
+      </c>
+      <c r="D92">
+        <v>0.065371532526063897</v>
+      </c>
+      <c r="E92">
+        <v>0.022649517625367065</v>
+      </c>
+      <c r="F92">
+        <v>0.023918577584252716</v>
+      </c>
+      <c r="G92">
+        <v>0.00046405880541785063</v>
+      </c>
+      <c r="H92">
+        <v>0.079251274668181174</v>
+      </c>
+      <c r="I92">
+        <v>0.71304742970761203</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B93">
+        <v>1.0441692707448399e-05</v>
+      </c>
+      <c r="C93">
+        <v>0.016501411662933452</v>
+      </c>
+      <c r="D93">
+        <v>0.017139464389489083</v>
+      </c>
+      <c r="E93">
+        <v>0.0060315017839199089</v>
+      </c>
+      <c r="F93">
+        <v>0.0014703049750666634</v>
+      </c>
+      <c r="G93">
+        <v>9.5882732003173084e-08</v>
+      </c>
+      <c r="H93">
+        <v>0.17671104489974437</v>
+      </c>
+      <c r="I93">
+        <v>0.78213573471340703</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="K93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B94">
+        <v>5.0703252248975386e-06</v>
+      </c>
+      <c r="C94">
+        <v>0.015322042345321949</v>
+      </c>
+      <c r="D94">
+        <v>0.0032967305232168534</v>
+      </c>
+      <c r="E94">
+        <v>0.013518029247549579</v>
+      </c>
+      <c r="F94">
+        <v>0.010614164046362293</v>
+      </c>
+      <c r="G94">
+        <v>0.025165936301710008</v>
+      </c>
+      <c r="H94">
+        <v>7.7953946283269371e-05</v>
+      </c>
+      <c r="I94">
+        <v>0.9320000732643311</v>
+      </c>
+      <c r="J94">
+        <v>8</v>
+      </c>
+      <c r="K94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B95">
+        <v>0.00010970568946158308</v>
+      </c>
+      <c r="C95">
+        <v>0.037204745798500645</v>
+      </c>
+      <c r="D95">
+        <v>0.00014100139657266699</v>
+      </c>
+      <c r="E95">
+        <v>0.0085058414287177368</v>
+      </c>
+      <c r="F95">
+        <v>0.0010002262415127656</v>
+      </c>
+      <c r="G95">
+        <v>0.0069486805937567673</v>
+      </c>
+      <c r="H95">
+        <v>0.0076656355910277784</v>
+      </c>
+      <c r="I95">
+        <v>0.93842416326045008</v>
+      </c>
+      <c r="J95">
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B96">
+        <v>1.5583822284211556e-05</v>
+      </c>
+      <c r="C96">
+        <v>0.026887938573699435</v>
+      </c>
+      <c r="D96">
+        <v>0.0073373653902974534</v>
+      </c>
+      <c r="E96">
+        <v>0.0072998105190495077</v>
+      </c>
+      <c r="F96">
+        <v>0.0022122233243525671</v>
+      </c>
+      <c r="G96">
+        <v>0.019853946527159872</v>
+      </c>
+      <c r="H96">
+        <v>0.00060161111554975796</v>
+      </c>
+      <c r="I96">
+        <v>0.9357915207276073</v>
+      </c>
+      <c r="J96">
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B97">
+        <v>2.5809304059854057e-05</v>
+      </c>
+      <c r="C97">
+        <v>0.033028689321934715</v>
+      </c>
+      <c r="D97">
+        <v>0.0018959279097358964</v>
+      </c>
+      <c r="E97">
+        <v>0.0073537813908289631</v>
+      </c>
+      <c r="F97">
+        <v>0.0021595299643904519</v>
+      </c>
+      <c r="G97">
+        <v>0.024334851939597328</v>
+      </c>
+      <c r="H97">
+        <v>0.00050647013883660527</v>
+      </c>
+      <c r="I97">
+        <v>0.93069494003061626</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B98">
+        <v>1.562240080697139e-05</v>
+      </c>
+      <c r="C98">
+        <v>0.030413940705817252</v>
+      </c>
+      <c r="D98">
+        <v>0.01390053175995379</v>
+      </c>
+      <c r="E98">
+        <v>0.0058260316065324794</v>
+      </c>
+      <c r="F98">
+        <v>0.0028684499892895859</v>
+      </c>
+      <c r="G98">
+        <v>0.041975415913633803</v>
+      </c>
+      <c r="H98">
+        <v>0.00031887563830918365</v>
+      </c>
+      <c r="I98">
+        <v>0.90468113198565692</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B99">
+        <v>0.00018318152560345091</v>
+      </c>
+      <c r="C99">
+        <v>0.033708088381816999</v>
+      </c>
+      <c r="D99">
+        <v>0.0011248990030412959</v>
+      </c>
+      <c r="E99">
+        <v>0.006862303153222251</v>
+      </c>
+      <c r="F99">
+        <v>0.10712865370327197</v>
+      </c>
+      <c r="G99">
+        <v>0.025426327797720163</v>
+      </c>
+      <c r="H99">
+        <v>0.006390813262203923</v>
+      </c>
+      <c r="I99">
+        <v>0.81917573317311998</v>
+      </c>
+      <c r="J99">
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B100">
+        <v>1.1065146444986324e-05</v>
+      </c>
+      <c r="C100">
+        <v>0.023384329667174606</v>
+      </c>
+      <c r="D100">
+        <v>0.00010418532345132039</v>
+      </c>
+      <c r="E100">
+        <v>0.0050703007271651794</v>
+      </c>
+      <c r="F100">
+        <v>0.0098080200237426161</v>
+      </c>
+      <c r="G100">
+        <v>0.0023897727829755274</v>
+      </c>
+      <c r="H100">
+        <v>0.012526836145687104</v>
+      </c>
+      <c r="I100">
+        <v>0.9467054901833587</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101">
+        <v>1.2395441545102231e-05</v>
+      </c>
+      <c r="C101">
+        <v>0.016769517727970296</v>
+      </c>
+      <c r="D101">
+        <v>0.00014194193916493167</v>
+      </c>
+      <c r="E101">
+        <v>0.0046650966748437361</v>
+      </c>
+      <c r="F101">
+        <v>0.0042630455105942084</v>
+      </c>
+      <c r="G101">
+        <v>0.0014526099708759416</v>
+      </c>
+      <c r="H101">
+        <v>0.0045078130792440795</v>
+      </c>
+      <c r="I101">
+        <v>0.96818757965576174</v>
+      </c>
+      <c r="J101">
+        <v>8</v>
+      </c>
+      <c r="K101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B102">
+        <v>1.8985322668470595e-05</v>
+      </c>
+      <c r="C102">
+        <v>0.0208118072633172</v>
+      </c>
+      <c r="D102">
+        <v>0.0084894924873634425</v>
+      </c>
+      <c r="E102">
+        <v>0.0056267382292815062</v>
+      </c>
+      <c r="F102">
+        <v>0.0045038526479080927</v>
+      </c>
+      <c r="G102">
+        <v>0.016685847763753602</v>
+      </c>
+      <c r="H102">
+        <v>0.00045015676757255554</v>
+      </c>
+      <c r="I102">
+        <v>0.94341311951813511</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B103">
+        <v>1.0932972197209808e-05</v>
+      </c>
+      <c r="C103">
+        <v>0.017399720413130204</v>
+      </c>
+      <c r="D103">
+        <v>5.6288744568194359e-05</v>
+      </c>
+      <c r="E103">
+        <v>0.0042792979224406938</v>
+      </c>
+      <c r="F103">
+        <v>0.00072426454548159475</v>
+      </c>
+      <c r="G103">
+        <v>0.00076042093638648901</v>
+      </c>
+      <c r="H103">
+        <v>0.013324710441373408</v>
+      </c>
+      <c r="I103">
+        <v>0.96344436402442213</v>
+      </c>
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B104">
+        <v>8.1026263496785012e-05</v>
+      </c>
+      <c r="C104">
+        <v>0.019216516238847511</v>
+      </c>
+      <c r="D104">
+        <v>0.14594639819143793</v>
+      </c>
+      <c r="E104">
+        <v>0.0084180538987998123</v>
+      </c>
+      <c r="F104">
+        <v>0.0026155369526123444</v>
+      </c>
+      <c r="G104">
+        <v>0.043696904673561035</v>
+      </c>
+      <c r="H104">
+        <v>0.00104889363486223</v>
+      </c>
+      <c r="I104">
+        <v>0.77897667014638239</v>
+      </c>
+      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B105">
+        <v>2.3471393843914088e-05</v>
+      </c>
+      <c r="C105">
+        <v>0.018656298853106802</v>
+      </c>
+      <c r="D105">
+        <v>0.00028448668898387849</v>
+      </c>
+      <c r="E105">
+        <v>0.005656721281792499</v>
+      </c>
+      <c r="F105">
+        <v>0.0017213613116831524</v>
+      </c>
+      <c r="G105">
+        <v>0.00027796487941241513</v>
+      </c>
+      <c r="H105">
+        <v>0.010647085796305234</v>
+      </c>
+      <c r="I105">
+        <v>0.96273260979487207</v>
+      </c>
+      <c r="J105">
+        <v>8</v>
+      </c>
+      <c r="K105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B106">
+        <v>1.4540700940213794e-05</v>
+      </c>
+      <c r="C106">
+        <v>0.018500412537856052</v>
+      </c>
+      <c r="D106">
+        <v>0.00020518026009809558</v>
+      </c>
+      <c r="E106">
+        <v>0.0041933570458455235</v>
+      </c>
+      <c r="F106">
+        <v>0.0028127590503116053</v>
+      </c>
+      <c r="G106">
+        <v>0.00050110865958976182</v>
+      </c>
+      <c r="H106">
+        <v>0.0067951548454625978</v>
+      </c>
+      <c r="I106">
+        <v>0.96697748689989615</v>
+      </c>
+      <c r="J106">
+        <v>8</v>
+      </c>
+      <c r="K106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B107">
+        <v>0.0013738961991596331</v>
+      </c>
+      <c r="C107">
+        <v>0.018101425786891067</v>
+      </c>
+      <c r="D107">
+        <v>0.63179102606946824</v>
+      </c>
+      <c r="E107">
+        <v>0.05022121287877844</v>
+      </c>
+      <c r="F107">
+        <v>0.012512003277980435</v>
+      </c>
+      <c r="G107">
+        <v>0.10274457758513487</v>
+      </c>
+      <c r="H107">
+        <v>0.0093312771369121455</v>
+      </c>
+      <c r="I107">
+        <v>0.17392458106567524</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108">
+        <v>6.7815289217845664e-07</v>
+      </c>
+      <c r="C108">
+        <v>0.0029671847989417668</v>
+      </c>
+      <c r="D108">
+        <v>2.7909534945872303e-06</v>
+      </c>
+      <c r="E108">
+        <v>0.0076988840897860983</v>
+      </c>
+      <c r="F108">
+        <v>5.6014629974772465e-05</v>
+      </c>
+      <c r="G108">
+        <v>2.6011940348009916e-09</v>
+      </c>
+      <c r="H108">
+        <v>0.50722753349668492</v>
+      </c>
+      <c r="I108">
+        <v>0.4820469112770317</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B109">
+        <v>0.00015785443163411294</v>
+      </c>
+      <c r="C109">
+        <v>0.025026402106930967</v>
+      </c>
+      <c r="D109">
+        <v>0.006832021533038927</v>
+      </c>
+      <c r="E109">
+        <v>0.011154566751348847</v>
+      </c>
+      <c r="F109">
+        <v>0.022590445350914558</v>
+      </c>
+      <c r="G109">
+        <v>0.0004057232319227323</v>
+      </c>
+      <c r="H109">
+        <v>0.036487862554734393</v>
+      </c>
+      <c r="I109">
+        <v>0.89734512403947542</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B110">
+        <v>4.5879536930381211e-05</v>
+      </c>
+      <c r="C110">
+        <v>0.023595414606084768</v>
+      </c>
+      <c r="D110">
+        <v>0.0030723385076319091</v>
+      </c>
+      <c r="E110">
+        <v>0.0028293961213775947</v>
+      </c>
+      <c r="F110">
+        <v>0.0020957739529403161</v>
+      </c>
+      <c r="G110">
+        <v>0.0013721996711471356</v>
+      </c>
+      <c r="H110">
+        <v>0.0035162681553203607</v>
+      </c>
+      <c r="I110">
+        <v>0.96347272944856754</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B111">
+        <v>0.033816678128737634</v>
+      </c>
+      <c r="C111">
+        <v>0.099467375100824151</v>
+      </c>
+      <c r="D111">
+        <v>0.29166413845790717</v>
+      </c>
+      <c r="E111">
+        <v>0.056686443358559033</v>
+      </c>
+      <c r="F111">
+        <v>0.028557708813159985</v>
+      </c>
+      <c r="G111">
+        <v>0.009348489927621528</v>
+      </c>
+      <c r="H111">
+        <v>0.09314057975931149</v>
+      </c>
+      <c r="I111">
+        <v>0.38731858645387907</v>
+      </c>
+      <c r="J111">
+        <v>8</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B112">
+        <v>0.001203460275480717</v>
+      </c>
+      <c r="C112">
+        <v>0.046495566708863484</v>
+      </c>
+      <c r="D112">
+        <v>0.0094467550887888697</v>
+      </c>
+      <c r="E112">
+        <v>0.0085426243386092626</v>
+      </c>
+      <c r="F112">
+        <v>0.017679742694072489</v>
+      </c>
+      <c r="G112">
+        <v>0.00054112289526946316</v>
+      </c>
+      <c r="H112">
+        <v>0.0072101884178088623</v>
+      </c>
+      <c r="I112">
+        <v>0.90888053958110682</v>
+      </c>
+      <c r="J112">
+        <v>8</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>